--- a/Diccionario.xlsx
+++ b/Diccionario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vicente\Desktop\control1-TBD-Grupo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E73C83-B645-4C3E-A037-4C520406203A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CC0B6-20BA-4C08-B647-CBD1ECB90876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9A0D9DC1-800C-4796-86EA-C29CBD9575AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{9A0D9DC1-800C-4796-86EA-C29CBD9575AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="99">
   <si>
     <t>Nombre Atributo</t>
   </si>
@@ -309,6 +309,30 @@
   </si>
   <si>
     <t>monto_pago</t>
+  </si>
+  <si>
+    <t>Tabla Servicio detalle</t>
+  </si>
+  <si>
+    <t>id_servicio_detalle</t>
+  </si>
+  <si>
+    <t>Identificador del servicioDetalle</t>
+  </si>
+  <si>
+    <t>identificador del servicio relacionado</t>
+  </si>
+  <si>
+    <t>identificador del detalle relacionado</t>
+  </si>
+  <si>
+    <t>Tabla Producto detalle</t>
+  </si>
+  <si>
+    <t>id_producto_detalle</t>
+  </si>
+  <si>
+    <t>identificador del producto relacionado</t>
   </si>
 </sst>
 </file>
@@ -415,25 +439,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CB8C5A-8AE8-4514-B75F-D5E299EF6864}">
-  <dimension ref="B2:E81"/>
+  <dimension ref="B2:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,885 +785,1016 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="1" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="B77:E77"/>
@@ -1649,11 +1803,6 @@
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
